--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\python-tutorial\python_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EB211A-E963-4756-8B4E-ED5F1070C69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156F3FE1-E674-4515-A654-A641229928BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7245" yWindow="0" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>김진수</t>
+  </si>
+  <si>
+    <t>kimjinsoo</t>
   </si>
   <si>
     <t>최진수</t>
@@ -183,10 +186,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>kimjinsoo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1002,31 +1001,31 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1074,8 +1073,8 @@
     <col min="31" max="31" width="9.6640625" style="1" customWidth="1"/>
     <col min="32" max="32" width="0.109375" style="1" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="8.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="34" max="36" width="8.88671875" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.88671875" style="1"/>
+    <col min="34" max="37" width="8.88671875" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="9" customHeight="1">
@@ -1093,7 +1092,7 @@
     </row>
     <row r="2" spans="1:33" ht="16.5" customHeight="1">
       <c r="A2" s="49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
@@ -1187,95 +1186,95 @@
     </row>
     <row r="5" spans="1:33" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U5" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V5" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W5" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X5" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y5" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z5" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA5" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB5" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC5" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD5" s="21"/>
       <c r="AE5" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="2" customFormat="1" ht="30" customHeight="1">
@@ -1283,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="37">
         <v>0</v>
@@ -1374,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="38">
         <v>0</v>
@@ -1465,7 +1464,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="38">
         <v>0</v>
@@ -1556,7 +1555,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="38">
         <v>0</v>
@@ -1637,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD9" s="28"/>
       <c r="AE9" s="28"/>
@@ -1647,7 +1646,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="39">
         <v>0</v>
@@ -1738,13 +1737,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="38">
         <v>0</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="25">
         <v>0</v>
@@ -1756,13 +1755,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I11" s="25">
         <v>0</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11" s="25">
         <v>0</v>
@@ -1774,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O11" s="25">
         <v>0</v>
@@ -1829,7 +1828,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="38">
         <v>0</v>
@@ -1853,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12" s="25">
         <v>0</v>
@@ -1862,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N12" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O12" s="25">
         <v>0</v>
@@ -1920,7 +1919,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="38">
         <v>0</v>
@@ -1941,19 +1940,19 @@
         <v>0</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J13" s="25">
         <v>0</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L13" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M13" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N13" s="25">
         <v>0</v>
@@ -1962,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="25">
         <v>0</v>
@@ -2011,7 +2010,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="38">
         <v>0</v>
@@ -2102,7 +2101,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="38">
         <v>0</v>
@@ -2126,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K15" s="25">
         <v>0</v>
@@ -2186,14 +2185,14 @@
         <v>0</v>
       </c>
       <c r="AD15" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE15" s="25"/>
       <c r="AF15" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG15" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="30" customHeight="1">
@@ -2201,7 +2200,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="40">
         <v>0</v>
@@ -2225,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K16" s="25">
         <v>0</v>
@@ -2237,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O16" s="25">
         <v>0</v>
@@ -2292,13 +2291,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="38">
         <v>0</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="25">
         <v>0</v>
@@ -2307,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" s="25">
         <v>0</v>
@@ -2337,13 +2336,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R17" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S17" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T17" s="25">
         <v>0</v>
@@ -2383,7 +2382,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="39">
         <v>0</v>
@@ -2474,7 +2473,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="38">
         <v>0</v>
@@ -2528,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U19" s="25">
         <v>0</v>
@@ -2565,7 +2564,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="38">
         <v>0</v>
@@ -2656,7 +2655,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="39">
         <v>0</v>
@@ -2674,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I21" s="25">
         <v>0</v>
@@ -2747,7 +2746,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="39">
         <v>0</v>
@@ -2838,7 +2837,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="39">
         <v>0</v>
@@ -2853,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H23" s="25">
         <v>0</v>
@@ -2929,7 +2928,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="39">
         <v>0</v>
@@ -3020,7 +3019,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="39">
         <v>0</v>
@@ -3041,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J25" s="25">
         <v>0</v>
@@ -3111,13 +3110,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="39">
         <v>0</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26" s="25">
         <v>0</v>
@@ -3126,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26" s="25">
         <v>0</v>
@@ -3192,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
@@ -3202,10 +3201,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D27" s="25">
         <v>0</v>
@@ -3235,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N27" s="25">
         <v>0</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P27" s="25">
         <v>0</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S27" s="25">
         <v>0</v>
@@ -3283,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
@@ -3293,7 +3292,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="39">
         <v>0</v>
@@ -3326,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O28" s="25">
         <v>0</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q28" s="25">
         <v>0</v>
@@ -3384,7 +3383,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" s="38">
         <v>0</v>
@@ -3393,49 +3392,49 @@
         <v>0</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F29" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H29" s="25">
         <v>0</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J29" s="25">
         <v>0</v>
       </c>
       <c r="K29" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L29" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N29" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O29" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P29" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q29" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R29" s="41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S29" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T29" s="25">
         <v>0</v>
@@ -3465,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD29" s="28"/>
       <c r="AE29" s="28"/>
@@ -3475,7 +3474,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" s="40">
         <v>0</v>
@@ -3490,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H30" s="25">
         <v>0</v>
@@ -3502,10 +3501,10 @@
         <v>0</v>
       </c>
       <c r="K30" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L30" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M30" s="25">
         <v>0</v>
@@ -3566,49 +3565,49 @@
         <v>26</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" s="41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L31" s="41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M31" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N31" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O31" s="33">
         <v>0</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q31" s="33">
         <v>0</v>
@@ -3620,16 +3619,16 @@
         <v>0</v>
       </c>
       <c r="T31" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U31" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V31" s="33">
         <v>0</v>
       </c>
       <c r="W31" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X31" s="37">
         <v>0</v>
@@ -3657,7 +3656,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="38">
         <v>0</v>
@@ -3666,10 +3665,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G32" s="25">
         <v>0</v>
@@ -3711,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U32" s="25">
         <v>0</v>
@@ -3748,7 +3747,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" s="40">
         <v>0</v>
@@ -3839,7 +3838,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" s="38">
         <v>0</v>
@@ -3930,19 +3929,19 @@
         <v>30</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35" s="25">
         <v>0</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F35" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G35" s="25">
         <v>0</v>
@@ -3969,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P35" s="25">
         <v>0</v>
@@ -4021,7 +4020,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" s="38"/>
       <c r="D36" s="25">
@@ -4058,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P36" s="25">
         <v>0</v>
@@ -4110,7 +4109,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" s="38">
         <v>0</v>
@@ -4201,7 +4200,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="39">
         <v>0</v>
@@ -4210,10 +4209,10 @@
         <v>0</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G38" s="25">
         <v>0</v>
@@ -4225,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K38" s="25">
         <v>0</v>
@@ -4292,7 +4291,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" s="39">
         <v>0</v>
@@ -4383,13 +4382,13 @@
         <v>35</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" s="39">
         <v>0</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E40" s="25">
         <v>0</v>
@@ -4474,7 +4473,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" s="42">
         <v>0</v>
@@ -4516,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q41" s="25">
         <v>0</v>
@@ -4565,13 +4564,13 @@
         <v>37</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" s="39">
         <v>0</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E42" s="25">
         <v>0</v>
@@ -4656,7 +4655,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C43" s="41">
         <v>0</v>
@@ -4747,10 +4746,10 @@
         <v>39</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D44" s="25">
         <v>0</v>
@@ -4774,10 +4773,10 @@
         <v>0</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L44" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M44" s="25">
         <v>0</v>
@@ -4786,10 +4785,10 @@
         <v>0</v>
       </c>
       <c r="O44" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P44" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q44" s="25">
         <v>0</v>
@@ -4801,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U44" s="25">
         <v>0</v>
@@ -4828,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD44" s="11"/>
       <c r="AE44" s="11"/>
@@ -4838,7 +4837,7 @@
         <v>40</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C45" s="38">
         <v>0</v>
@@ -4856,13 +4855,13 @@
         <v>0</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J45" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K45" s="25">
         <v>0</v>
@@ -4874,13 +4873,13 @@
         <v>0</v>
       </c>
       <c r="N45" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O45" s="25">
         <v>0</v>
       </c>
       <c r="P45" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q45" s="25">
         <v>0</v>
@@ -4892,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U45" s="25">
         <v>0</v>
@@ -4929,7 +4928,7 @@
         <v>41</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C46" s="43">
         <v>0</v>
@@ -5020,7 +5019,7 @@
         <v>42</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C47" s="39">
         <v>0</v>
@@ -5029,10 +5028,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F47" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G47" s="25">
         <v>0</v>
@@ -5044,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K47" s="25">
         <v>0</v>
@@ -5059,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P47" s="25">
         <v>0</v>
@@ -5111,7 +5110,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C48" s="39">
         <v>0</v>
@@ -5202,7 +5201,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C49" s="39">
         <v>0</v>
@@ -5241,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P49" s="25">
         <v>0</v>
@@ -5265,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X49" s="37">
         <v>0</v>
@@ -5294,7 +5293,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C50" s="39">
         <v>0</v>
@@ -5386,7 +5385,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C51" s="38">
         <v>0</v>
@@ -5477,10 +5476,10 @@
         <v>47</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D52" s="25">
         <v>0</v>
@@ -5568,7 +5567,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C53" s="42">
         <v>0</v>
@@ -5659,13 +5658,13 @@
         <v>49</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C54" s="39">
         <v>0</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E54" s="25">
         <v>0</v>
@@ -5674,28 +5673,28 @@
         <v>0</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L54" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O54" s="25">
         <v>0</v>
@@ -5750,7 +5749,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C55" s="42">
         <v>0</v>
@@ -5841,7 +5840,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C56" s="39">
         <v>0</v>
@@ -5856,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56" s="25">
         <v>0</v>
@@ -5874,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N56" s="25">
         <v>0</v>
@@ -5883,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q56" s="25">
         <v>0</v>
@@ -5922,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD56" s="11"/>
       <c r="AE56" s="11"/>
@@ -5932,7 +5931,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C57" s="39">
         <v>0</v>
@@ -6023,7 +6022,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C58" s="42">
         <v>0</v>
@@ -6047,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K58" s="25">
         <v>0</v>
@@ -6114,7 +6113,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C59" s="39">
         <v>0</v>
@@ -6205,7 +6204,7 @@
         <v>55</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C60" s="42">
         <v>0</v>
@@ -6259,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U60" s="25">
         <v>0</v>
@@ -6296,88 +6295,88 @@
         <v>56</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C61" s="38">
         <v>0</v>
       </c>
       <c r="D61" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="33">
+        <v>0</v>
+      </c>
+      <c r="F61" s="47">
+        <v>0</v>
+      </c>
+      <c r="G61" s="33">
+        <v>0</v>
+      </c>
+      <c r="H61" s="33">
+        <v>0</v>
+      </c>
+      <c r="I61" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J61" s="33">
+        <v>0</v>
+      </c>
+      <c r="K61" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="L61" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="M61" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N61" s="33">
+        <v>0</v>
+      </c>
+      <c r="O61" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="P61" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q61" s="33">
+        <v>0</v>
+      </c>
+      <c r="R61" s="47">
+        <v>0</v>
+      </c>
+      <c r="S61" s="33">
+        <v>0</v>
+      </c>
+      <c r="T61" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="U61" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="V61" s="33">
+        <v>0</v>
+      </c>
+      <c r="W61" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="X61" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="37">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="37">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="28" t="s">
         <v>42</v>
-      </c>
-      <c r="E61" s="33">
-        <v>0</v>
-      </c>
-      <c r="F61" s="47">
-        <v>0</v>
-      </c>
-      <c r="G61" s="33">
-        <v>0</v>
-      </c>
-      <c r="H61" s="33">
-        <v>0</v>
-      </c>
-      <c r="I61" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="J61" s="33">
-        <v>0</v>
-      </c>
-      <c r="K61" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="L61" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="M61" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="N61" s="33">
-        <v>0</v>
-      </c>
-      <c r="O61" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="P61" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q61" s="33">
-        <v>0</v>
-      </c>
-      <c r="R61" s="47">
-        <v>0</v>
-      </c>
-      <c r="S61" s="33">
-        <v>0</v>
-      </c>
-      <c r="T61" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="U61" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="V61" s="33">
-        <v>0</v>
-      </c>
-      <c r="W61" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="X61" s="37">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="37">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="37">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="37">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="AD61" s="28"/>
       <c r="AE61" s="31"/>
@@ -6387,7 +6386,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C62" s="39">
         <v>0</v>
@@ -6478,7 +6477,7 @@
         <v>58</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C63" s="39">
         <v>0</v>
@@ -6541,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="W63" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X63" s="37">
         <v>0</v>
@@ -6559,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD63" s="11"/>
       <c r="AE63" s="11"/>
@@ -6569,13 +6568,13 @@
         <v>59</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C64" s="39">
         <v>0</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E64" s="25">
         <v>0</v>
@@ -6593,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K64" s="25">
         <v>0</v>
@@ -6614,10 +6613,10 @@
         <v>0</v>
       </c>
       <c r="Q64" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R64" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S64" s="25">
         <v>0</v>
@@ -6660,7 +6659,7 @@
         <v>60</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C65" s="38">
         <v>0</v>
@@ -6687,10 +6686,10 @@
         <v>0</v>
       </c>
       <c r="K65" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L65" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M65" s="25">
         <v>0</v>
@@ -6751,7 +6750,7 @@
         <v>61</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C66" s="40">
         <v>0</v>
@@ -6842,7 +6841,7 @@
         <v>62</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C67" s="39">
         <v>0</v>
@@ -6933,7 +6932,7 @@
         <v>63</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C68" s="38">
         <v>0</v>
@@ -6951,13 +6950,13 @@
         <v>0</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I68" s="25">
         <v>0</v>
       </c>
       <c r="J68" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K68" s="25">
         <v>0</v>
@@ -7024,7 +7023,7 @@
         <v>64</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C69" s="39">
         <v>0</v>
@@ -7115,7 +7114,7 @@
         <v>65</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C70" s="38">
         <v>0</v>
@@ -7130,13 +7129,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H70" s="33">
         <v>0</v>
       </c>
       <c r="I70" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J70" s="33">
         <v>0</v>
@@ -7148,25 +7147,25 @@
         <v>0</v>
       </c>
       <c r="M70" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N70" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O70" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P70" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q70" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R70" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S70" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T70" s="33">
         <v>0</v>
@@ -7206,7 +7205,7 @@
         <v>66</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C71" s="42">
         <v>0</v>
@@ -7215,10 +7214,10 @@
         <v>0</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F71" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G71" s="25">
         <v>0</v>
@@ -7297,7 +7296,7 @@
         <v>67</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C72" s="39">
         <v>0</v>
@@ -7388,7 +7387,7 @@
         <v>68</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C73" s="39">
         <v>0</v>
@@ -7439,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="S73" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T73" s="25">
         <v>0</v>
@@ -7479,10 +7478,10 @@
         <v>69</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D74" s="25">
         <v>0</v>
@@ -7494,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H74" s="25">
         <v>0</v>
@@ -7533,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="T74" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U74" s="25">
         <v>0</v>
@@ -7542,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="W74" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X74" s="37">
         <v>0</v>
@@ -7560,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="AC74" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD74" s="11"/>
       <c r="AE74" s="31"/>
@@ -7570,7 +7569,7 @@
         <v>70</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C75" s="38">
         <v>0</v>
@@ -7603,16 +7602,16 @@
         <v>0</v>
       </c>
       <c r="M75" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N75" s="25">
         <v>0</v>
       </c>
       <c r="O75" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P75" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q75" s="25">
         <v>0</v>
@@ -7661,7 +7660,7 @@
         <v>71</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C76" s="38">
         <v>0</v>
@@ -7670,10 +7669,10 @@
         <v>0</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F76" s="46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G76" s="25">
         <v>0</v>
@@ -7752,7 +7751,7 @@
         <v>72</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C77" s="39">
         <v>0</v>
@@ -7785,13 +7784,13 @@
         <v>0</v>
       </c>
       <c r="M77" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N77" s="25">
         <v>0</v>
       </c>
       <c r="O77" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P77" s="25">
         <v>0</v>
@@ -7843,7 +7842,7 @@
         <v>73</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C78" s="39">
         <v>0</v>
@@ -7864,22 +7863,22 @@
         <v>0</v>
       </c>
       <c r="I78" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J78" s="25">
         <v>0</v>
       </c>
       <c r="K78" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L78" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M78" s="25">
         <v>0</v>
       </c>
       <c r="N78" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O78" s="25">
         <v>0</v>
@@ -7894,7 +7893,7 @@
         <v>0</v>
       </c>
       <c r="S78" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T78" s="25">
         <v>0</v>
@@ -7934,7 +7933,7 @@
         <v>74</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C79" s="38">
         <v>0</v>
@@ -7952,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I79" s="25">
         <v>0</v>
@@ -7979,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="Q79" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R79" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S79" s="25">
         <v>0</v>
@@ -8025,10 +8024,10 @@
         <v>75</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D80" s="25">
         <v>0</v>
@@ -8116,7 +8115,7 @@
         <v>76</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C81" s="42">
         <v>0</v>
@@ -8207,7 +8206,7 @@
         <v>77</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C82" s="42">
         <v>0</v>
@@ -8298,19 +8297,19 @@
         <v>78</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D83" s="25">
         <v>0</v>
       </c>
       <c r="E83" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F83" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G83" s="25">
         <v>0</v>
@@ -8334,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="N83" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O83" s="25">
         <v>0</v>
@@ -8349,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="S83" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T83" s="25">
         <v>0</v>
@@ -8389,7 +8388,7 @@
         <v>79</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C84" s="39">
         <v>0</v>
@@ -8480,7 +8479,7 @@
         <v>80</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C85" s="39">
         <v>0</v>
@@ -8561,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="AC85" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD85" s="11"/>
       <c r="AE85" s="28"/>
@@ -8571,7 +8570,7 @@
         <v>81</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C86" s="42">
         <v>0</v>
@@ -8662,7 +8661,7 @@
         <v>82</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C87" s="42">
         <v>0</v>
@@ -8686,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K87" s="25">
         <v>0</v>
@@ -8701,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="O87" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P87" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q87" s="25">
         <v>0</v>
@@ -8753,7 +8752,7 @@
         <v>83</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C88" s="42">
         <v>0</v>
@@ -8807,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="T88" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U88" s="25">
         <v>0</v>
@@ -8844,7 +8843,7 @@
         <v>84</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C89" s="39">
         <v>0</v>
@@ -8862,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I89" s="25">
         <v>0</v>
@@ -8935,7 +8934,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C90" s="42">
         <v>0</v>
@@ -9026,7 +9025,7 @@
         <v>86</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C91" s="39">
         <v>0</v>
@@ -9059,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="M91" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N91" s="25">
         <v>0</v>
@@ -9117,7 +9116,7 @@
         <v>87</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C92" s="39">
         <v>0</v>
@@ -9208,7 +9207,7 @@
         <v>88</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C93" s="39">
         <v>0</v>
@@ -9229,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J93" s="25">
         <v>0</v>
@@ -9299,10 +9298,10 @@
         <v>89</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D94" s="25">
         <v>0</v>
@@ -9390,7 +9389,7 @@
         <v>90</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C95" s="39">
         <v>0</v>
@@ -9481,7 +9480,7 @@
         <v>91</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C96" s="39">
         <v>0</v>
@@ -9499,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I96" s="25">
         <v>0</v>
@@ -9517,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O96" s="25">
         <v>0</v>
@@ -9526,10 +9525,10 @@
         <v>0</v>
       </c>
       <c r="Q96" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R96" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S96" s="25">
         <v>0</v>
@@ -9572,7 +9571,7 @@
         <v>92</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C97" s="39">
         <v>0</v>
@@ -9614,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="P97" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q97" s="25">
         <v>0</v>
@@ -9635,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="W97" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X97" s="37">
         <v>0</v>
@@ -9663,7 +9662,7 @@
         <v>93</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C98" s="39">
         <v>0</v>
@@ -9754,7 +9753,7 @@
         <v>94</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C99" s="42">
         <v>0</v>
@@ -9845,7 +9844,7 @@
         <v>95</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C100" s="39">
         <v>0</v>
@@ -9936,7 +9935,7 @@
         <v>96</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C101" s="39">
         <v>0</v>
@@ -10027,7 +10026,7 @@
         <v>97</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C102" s="42">
         <v>0</v>
@@ -10118,7 +10117,7 @@
         <v>98</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C103" s="39">
         <v>0</v>
@@ -10133,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="G103" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H103" s="25">
         <v>0</v>
@@ -10181,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="W103" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X103" s="37">
         <v>0</v>
@@ -10209,10 +10208,10 @@
         <v>99</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C104" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D104" s="25">
         <v>0</v>
@@ -10300,7 +10299,7 @@
         <v>100</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C105" s="39">
         <v>0</v>
@@ -10363,7 +10362,7 @@
         <v>0</v>
       </c>
       <c r="W105" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X105" s="37">
         <v>0</v>
@@ -10391,37 +10390,37 @@
         <v>101</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D106" s="25">
         <v>0</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F106" s="46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G106" s="28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H106" s="28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I106" s="28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J106" s="28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K106" s="28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L106" s="41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M106" s="25">
         <v>0</v>
@@ -10442,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="S106" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T106" s="25">
         <v>0</v>
@@ -10482,7 +10481,7 @@
         <v>102</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C107" s="39">
         <v>0</v>
@@ -10573,7 +10572,7 @@
         <v>103</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C108" s="42">
         <v>0</v>
@@ -10606,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="M108" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N108" s="25">
         <v>0</v>
@@ -10615,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="P108" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q108" s="25">
         <v>0</v>
@@ -10664,7 +10663,7 @@
         <v>104</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C109" s="39">
         <v>0</v>
@@ -10755,7 +10754,7 @@
         <v>105</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C110" s="39">
         <v>0</v>
@@ -10788,7 +10787,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N110" s="25">
         <v>0</v>
@@ -10846,7 +10845,7 @@
         <v>106</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C111" s="39">
         <v>0</v>
@@ -10937,7 +10936,7 @@
         <v>107</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C112" s="39">
         <v>0</v>
@@ -10946,10 +10945,10 @@
         <v>0</v>
       </c>
       <c r="E112" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F112" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G112" s="25">
         <v>0</v>
@@ -11018,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="AC112" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD112" s="11"/>
       <c r="AE112" s="11"/>
@@ -11028,7 +11027,7 @@
         <v>108</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C113" s="39">
         <v>0</v>
@@ -11119,7 +11118,7 @@
         <v>109</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C114" s="39">
         <v>0</v>
@@ -11210,7 +11209,7 @@
         <v>110</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C115" s="42">
         <v>0</v>
@@ -11301,7 +11300,7 @@
         <v>111</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C116" s="39">
         <v>0</v>
@@ -11352,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="S116" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T116" s="25">
         <v>0</v>
@@ -11392,7 +11391,7 @@
         <v>112</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C117" s="39">
         <v>0</v>
@@ -11483,7 +11482,7 @@
         <v>113</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C118" s="42">
         <v>0</v>
@@ -11564,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="AC118" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD118" s="11"/>
       <c r="AE118" s="11"/>
@@ -11574,7 +11573,7 @@
         <v>114</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C119" s="39">
         <v>0</v>
@@ -11607,7 +11606,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N119" s="25">
         <v>0</v>
@@ -11625,7 +11624,7 @@
         <v>0</v>
       </c>
       <c r="S119" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T119" s="25">
         <v>0</v>
@@ -11665,7 +11664,7 @@
         <v>115</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C120" s="39">
         <v>0</v>
@@ -11701,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="N120" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O120" s="25">
         <v>0</v>
@@ -11756,7 +11755,7 @@
         <v>116</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C121" s="39">
         <v>0</v>
@@ -11777,7 +11776,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J121" s="25">
         <v>0</v>
@@ -11847,7 +11846,7 @@
         <v>117</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C122" s="39">
         <v>0</v>
@@ -11862,22 +11861,22 @@
         <v>0</v>
       </c>
       <c r="G122" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H122" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I122" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J122" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K122" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L122" s="46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M122" s="25">
         <v>0</v>
@@ -11938,7 +11937,7 @@
         <v>118</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C123" s="39">
         <v>0</v>
@@ -12029,7 +12028,7 @@
         <v>119</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C124" s="39">
         <v>0</v>
@@ -12120,7 +12119,7 @@
         <v>120</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C125" s="39">
         <v>0</v>
@@ -12201,7 +12200,7 @@
         <v>0</v>
       </c>
       <c r="AC125" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD125" s="11"/>
       <c r="AE125" s="11"/>
@@ -12211,7 +12210,7 @@
         <v>121</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C126" s="39">
         <v>0</v>
@@ -12244,13 +12243,13 @@
         <v>0</v>
       </c>
       <c r="M126" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N126" s="25">
         <v>0</v>
       </c>
       <c r="O126" s="33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P126" s="25">
         <v>0</v>
@@ -12302,88 +12301,88 @@
         <v>122</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C127" s="44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F127" s="41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G127" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H127" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I127" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J127" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K127" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L127" s="41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M127" s="33">
         <v>0</v>
       </c>
       <c r="N127" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="O127" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="P127" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="33">
+        <v>0</v>
+      </c>
+      <c r="R127" s="47">
+        <v>0</v>
+      </c>
+      <c r="S127" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="T127" s="33">
+        <v>0</v>
+      </c>
+      <c r="U127" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="V127" s="33">
+        <v>0</v>
+      </c>
+      <c r="W127" s="33">
+        <v>0</v>
+      </c>
+      <c r="X127" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y127" s="37">
+        <v>0</v>
+      </c>
+      <c r="Z127" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA127" s="37">
+        <v>0</v>
+      </c>
+      <c r="AB127" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC127" s="28" t="s">
         <v>42</v>
-      </c>
-      <c r="O127" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="P127" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q127" s="33">
-        <v>0</v>
-      </c>
-      <c r="R127" s="47">
-        <v>0</v>
-      </c>
-      <c r="S127" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="T127" s="33">
-        <v>0</v>
-      </c>
-      <c r="U127" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="V127" s="33">
-        <v>0</v>
-      </c>
-      <c r="W127" s="33">
-        <v>0</v>
-      </c>
-      <c r="X127" s="37">
-        <v>0</v>
-      </c>
-      <c r="Y127" s="37">
-        <v>0</v>
-      </c>
-      <c r="Z127" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA127" s="37">
-        <v>0</v>
-      </c>
-      <c r="AB127" s="37">
-        <v>0</v>
-      </c>
-      <c r="AC127" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="AD127" s="28"/>
       <c r="AE127" s="28"/>
@@ -12393,7 +12392,7 @@
         <v>123</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C128" s="39">
         <v>0</v>
@@ -12435,7 +12434,7 @@
         <v>0</v>
       </c>
       <c r="P128" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q128" s="25">
         <v>0</v>
@@ -12484,7 +12483,7 @@
         <v>124</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C129" s="45">
         <v>0</v>
@@ -12575,7 +12574,7 @@
         <v>125</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C130" s="39">
         <v>0</v>
@@ -12611,22 +12610,22 @@
         <v>0</v>
       </c>
       <c r="N130" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O130" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P130" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q130" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R130" s="46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S130" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T130" s="25">
         <v>0</v>
@@ -12666,7 +12665,7 @@
         <v>126</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C131" s="42">
         <v>0</v>
@@ -12757,7 +12756,7 @@
         <v>127</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C132" s="42">
         <v>0</v>
@@ -12848,7 +12847,7 @@
         <v>128</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C133" s="39">
         <v>0</v>
@@ -12939,7 +12938,7 @@
         <v>129</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C134" s="42">
         <v>0</v>
@@ -13030,7 +13029,7 @@
         <v>130</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C135" s="45">
         <v>0</v>
@@ -13121,13 +13120,13 @@
         <v>131</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C136" s="38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E136" s="25">
         <v>0</v>
@@ -13136,10 +13135,10 @@
         <v>0</v>
       </c>
       <c r="G136" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H136" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I136" s="25">
         <v>0</v>
@@ -13148,22 +13147,22 @@
         <v>0</v>
       </c>
       <c r="K136" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L136" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M136" s="25">
         <v>0</v>
       </c>
       <c r="N136" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O136" s="25">
         <v>0</v>
       </c>
       <c r="P136" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q136" s="25">
         <v>0</v>
@@ -13172,7 +13171,7 @@
         <v>0</v>
       </c>
       <c r="S136" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T136" s="25">
         <v>0</v>
@@ -13202,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="AC136" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD136" s="28"/>
       <c r="AE136" s="31"/>
@@ -13212,7 +13211,7 @@
         <v>132</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C137" s="39">
         <v>0</v>
@@ -13303,7 +13302,7 @@
         <v>133</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C138" s="42">
         <v>0</v>
@@ -13394,13 +13393,13 @@
         <v>134</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C139" s="39">
         <v>0</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E139" s="25">
         <v>0</v>
@@ -13485,7 +13484,7 @@
         <v>135</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C140" s="39">
         <v>0</v>
@@ -13521,7 +13520,7 @@
         <v>0</v>
       </c>
       <c r="N140" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O140" s="25">
         <v>0</v>
@@ -13576,7 +13575,7 @@
         <v>136</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C141" s="39">
         <v>0</v>
@@ -13633,13 +13632,13 @@
         <v>0</v>
       </c>
       <c r="U141" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V141" s="25">
         <v>0</v>
       </c>
       <c r="W141" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X141" s="37">
         <v>0</v>
@@ -13657,7 +13656,7 @@
         <v>0</v>
       </c>
       <c r="AC141" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD141" s="11"/>
       <c r="AE141" s="31"/>
@@ -13667,7 +13666,7 @@
         <v>137</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C142" s="39">
         <v>0</v>
@@ -13724,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="U142" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V142" s="25">
         <v>0</v>
@@ -13748,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="AC142" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD142" s="11"/>
       <c r="AE142" s="11"/>
@@ -13758,7 +13757,7 @@
         <v>138</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C143" s="38">
         <v>0</v>
@@ -13776,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="H143" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I143" s="25">
         <v>0</v>
@@ -13791,13 +13790,13 @@
         <v>0</v>
       </c>
       <c r="M143" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N143" s="25">
         <v>0</v>
       </c>
       <c r="O143" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P143" s="25">
         <v>0</v>
@@ -13812,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="T143" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U143" s="25">
         <v>0</v>
@@ -13821,7 +13820,7 @@
         <v>0</v>
       </c>
       <c r="W143" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X143" s="37">
         <v>0</v>
@@ -13849,7 +13848,7 @@
         <v>139</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C144" s="39">
         <v>0</v>
@@ -13858,10 +13857,10 @@
         <v>0</v>
       </c>
       <c r="E144" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F144" s="46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G144" s="25">
         <v>0</v>
@@ -13940,7 +13939,7 @@
         <v>140</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C145" s="39">
         <v>0</v>
@@ -13964,7 +13963,7 @@
         <v>0</v>
       </c>
       <c r="J145" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K145" s="25">
         <v>0</v>
@@ -14031,7 +14030,7 @@
         <v>141</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C146" s="39">
         <v>0</v>
@@ -14046,7 +14045,7 @@
         <v>0</v>
       </c>
       <c r="G146" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H146" s="25">
         <v>0</v>
@@ -14082,7 +14081,7 @@
         <v>0</v>
       </c>
       <c r="S146" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T146" s="25">
         <v>0</v>
@@ -14122,7 +14121,7 @@
         <v>142</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C147" s="39">
         <v>0</v>
@@ -14213,7 +14212,7 @@
         <v>143</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C148" s="39">
         <v>0</v>
@@ -14304,7 +14303,7 @@
         <v>144</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C149" s="39">
         <v>0</v>
@@ -14322,7 +14321,7 @@
         <v>0</v>
       </c>
       <c r="H149" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I149" s="25">
         <v>0</v>
@@ -14355,7 +14354,7 @@
         <v>0</v>
       </c>
       <c r="S149" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T149" s="25">
         <v>0</v>
@@ -14395,7 +14394,7 @@
         <v>145</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C150" s="39">
         <v>0</v>
@@ -14516,7 +14515,7 @@
     </row>
     <row r="152" spans="1:33" ht="30" customHeight="1">
       <c r="A152" s="60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B152" s="61"/>
       <c r="C152" s="34">
@@ -15311,8 +15310,8 @@
     <col min="31" max="31" width="9.6640625" style="1" customWidth="1"/>
     <col min="32" max="32" width="0.109375" style="1" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="8.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="34" max="36" width="8.88671875" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.88671875" style="1"/>
+    <col min="34" max="37" width="8.88671875" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="9" customHeight="1">
@@ -15330,7 +15329,7 @@
     </row>
     <row r="2" spans="1:33" ht="16.5" customHeight="1">
       <c r="A2" s="49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
@@ -15424,95 +15423,95 @@
     </row>
     <row r="5" spans="1:33" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U5" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V5" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W5" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X5" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y5" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z5" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA5" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB5" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC5" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD5" s="21"/>
       <c r="AE5" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="2" customFormat="1" ht="30" customHeight="1">
@@ -15547,7 +15546,7 @@
       <c r="Y6" s="37"/>
       <c r="Z6" s="37"/>
       <c r="AA6" s="37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB6" s="37"/>
       <c r="AC6" s="25"/>
@@ -15559,7 +15558,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="25"/>
@@ -15586,7 +15585,7 @@
       <c r="Y7" s="37"/>
       <c r="Z7" s="37"/>
       <c r="AA7" s="37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB7" s="37"/>
       <c r="AC7" s="25"/>
@@ -15598,7 +15597,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="25"/>
@@ -15625,7 +15624,7 @@
       <c r="Y8" s="37"/>
       <c r="Z8" s="37"/>
       <c r="AA8" s="37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB8" s="37"/>
       <c r="AC8" s="25"/>
@@ -15637,7 +15636,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="33"/>
@@ -15664,7 +15663,7 @@
       <c r="Y9" s="37"/>
       <c r="Z9" s="37"/>
       <c r="AA9" s="37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB9" s="37"/>
       <c r="AC9" s="28"/>
@@ -15706,7 +15705,7 @@
     </row>
     <row r="11" spans="1:33" ht="30" customHeight="1">
       <c r="A11" s="60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="61"/>
       <c r="C11" s="34">
@@ -16449,11 +16448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37239E56-5C63-4638-B6D8-5281BB87C6BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6:AA9"/>
+      <selection activeCell="M6" sqref="M6:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16483,7 +16482,8 @@
     <col min="31" max="31" width="9.6640625" style="1" customWidth="1"/>
     <col min="32" max="32" width="0.109375" style="1" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="8.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.88671875" style="1"/>
+    <col min="34" max="34" width="8.88671875" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="9" customHeight="1">
@@ -16501,7 +16501,7 @@
     </row>
     <row r="2" spans="1:33" ht="16.5" customHeight="1">
       <c r="A2" s="49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
@@ -16595,95 +16595,95 @@
     </row>
     <row r="5" spans="1:33" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U5" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V5" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W5" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X5" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y5" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z5" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA5" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB5" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC5" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD5" s="21"/>
       <c r="AE5" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="2" customFormat="1" ht="30" customHeight="1">
@@ -16728,7 +16728,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="25"/>
@@ -16765,7 +16765,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="25"/>
@@ -16802,7 +16802,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="33"/>
@@ -16869,7 +16869,7 @@
     </row>
     <row r="11" spans="1:33" ht="30" customHeight="1">
       <c r="A11" s="60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="61"/>
       <c r="C11" s="34">
